--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4066067.190297103</v>
+        <v>-4066779.794771145</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.42841477</v>
+        <v>169821.4284147699</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058539</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185.3226550581647</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494462</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384177</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718761</v>
+        <v>16.53078872718773</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550843</v>
+        <v>49.17968824550865</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065493</v>
+        <v>44.13476116065508</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673109</v>
+        <v>71.82086528673153</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845967</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012116</v>
+        <v>50.30595005318946</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810586</v>
+        <v>9.188502199810728</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851657</v>
+        <v>157.4172237761147</v>
       </c>
       <c r="T12" t="n">
-        <v>188.5623770505815</v>
+        <v>36.6405496213481</v>
       </c>
       <c r="U12" t="n">
-        <v>188.5623770505815</v>
+        <v>58.89840834437498</v>
       </c>
       <c r="V12" t="n">
-        <v>159.7889778115649</v>
+        <v>62.31927159084705</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245626</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491527</v>
+        <v>38.98326511491541</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947028</v>
+        <v>45.05463680947042</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650153</v>
+        <v>25.09353465650166</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412733</v>
+        <v>57.10576830412747</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605249</v>
+        <v>45.43126511605263</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226097</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989457</v>
+        <v>66.77936585989471</v>
       </c>
       <c r="W13" t="n">
-        <v>111.98105776478</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368719</v>
+        <v>43.58980608368734</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961308</v>
+        <v>38.81162348961323</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>185.322655058164</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>139.3104122921791</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384193</v>
+        <v>62.66716559384221</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>16.53078872718777</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550866</v>
+        <v>49.17968824550873</v>
       </c>
       <c r="T14" t="n">
-        <v>44.134761160655</v>
+        <v>44.13476116065504</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673109</v>
+        <v>71.82086528673106</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845967</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012116</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810642</v>
+        <v>9.188502199810728</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851662</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T15" t="n">
+        <v>107.3018655550375</v>
+      </c>
+      <c r="U15" t="n">
+        <v>58.89840834437498</v>
+      </c>
+      <c r="V15" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="U15" t="n">
-        <v>58.89840834437489</v>
-      </c>
-      <c r="V15" t="n">
-        <v>62.31927159084697</v>
-      </c>
       <c r="W15" t="n">
-        <v>188.5623770505816</v>
+        <v>88.3749342524564</v>
       </c>
       <c r="X15" t="n">
-        <v>159.0829907630459</v>
+        <v>38.98326511491541</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947034</v>
+        <v>45.05463680947042</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650158</v>
+        <v>25.09353465650166</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412739</v>
+        <v>57.10576830412747</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605254</v>
+        <v>45.43126511605263</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226097</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989463</v>
+        <v>66.77936585989471</v>
       </c>
       <c r="W16" t="n">
-        <v>111.98105776478</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368725</v>
+        <v>43.58980608368734</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961314</v>
+        <v>38.81162348961323</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>74.05432026957499</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7746578479518</v>
+        <v>105.7746578479523</v>
       </c>
       <c r="G17" t="n">
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.5933655819402</v>
+        <v>49.59336558194019</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24.53059687504965</v>
+        <v>31.37710335571817</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>188.5623770505816</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="19">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.66264858577216</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911765</v>
+        <v>52.78090558911759</v>
       </c>
       <c r="D20" t="n">
-        <v>40.34756785016612</v>
+        <v>40.34756785016606</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957499</v>
+        <v>74.05432026957493</v>
       </c>
       <c r="F20" t="n">
         <v>105.7746578479523</v>
@@ -2096,7 +2096,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.5933655819402</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709085</v>
+        <v>23.45519181709079</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370572</v>
+        <v>40.47187203370567</v>
       </c>
       <c r="X20" t="n">
-        <v>62.35812250264496</v>
+        <v>62.3581225026449</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638872</v>
+        <v>84.86097562638867</v>
       </c>
     </row>
     <row r="21">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.06692014890527247</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="T21" t="n">
-        <v>159.2392352254837</v>
-      </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
         <v>188.5623770505816</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.66264858577216</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78090558911765</v>
+        <v>52.78090558911759</v>
       </c>
       <c r="D23" t="n">
-        <v>40.34756785016612</v>
+        <v>40.34756785016606</v>
       </c>
       <c r="E23" t="n">
-        <v>74.05432026957499</v>
+        <v>74.05432026957493</v>
       </c>
       <c r="F23" t="n">
         <v>105.7746578479523</v>
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194019</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.45519181709085</v>
+        <v>23.45519181709079</v>
       </c>
       <c r="W23" t="n">
-        <v>40.47187203370572</v>
+        <v>40.47187203370567</v>
       </c>
       <c r="X23" t="n">
-        <v>62.35812250264496</v>
+        <v>62.3581225026449</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.86097562638872</v>
+        <v>84.86097562638867</v>
       </c>
     </row>
     <row r="24">
@@ -2400,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>31.37710335571822</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>24.53059687504965</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R24" t="n">
         <v>134.7086383504341</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2573,7 +2573,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036448</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.0423609020311</v>
+        <v>14.04236090203118</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177534</v>
+        <v>8.997433817177532</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325365</v>
+        <v>36.68353794325387</v>
       </c>
       <c r="V26" t="n">
         <v>107.4128069411193</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>83.80796726077874</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,25 +2676,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7086383504341</v>
+        <v>19.88658643858666</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870549</v>
+        <v>1.503222277870548</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280576689302</v>
+        <v>23.76108100089743</v>
       </c>
       <c r="V27" t="n">
-        <v>27.1819442473695</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897885</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>3.84593777143786</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6202637098005</v>
+        <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
         <v>136.738520713146</v>
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036516</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203113</v>
+        <v>14.04236090203115</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177477</v>
+        <v>8.997433817177503</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325345</v>
+        <v>36.68353794325348</v>
       </c>
       <c r="V29" t="n">
         <v>107.4128069411192</v>
@@ -2855,7 +2855,7 @@
         <v>124.4294871577341</v>
       </c>
       <c r="X29" t="n">
-        <v>146.3157376266733</v>
+        <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8185907504171</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>9.118929311886481</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870492</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280576689302</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736944</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897879</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>87.65390503221683</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992815</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064986</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257502</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913219</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6420385164171</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130252</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209727</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135617</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>133.5509807059685</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036441</v>
+        <v>27.52983825036438</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>8.997433817177592</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325387</v>
+        <v>36.68353794325477</v>
       </c>
       <c r="V32" t="n">
         <v>107.4128069411192</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3150,25 +3150,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870464</v>
+        <v>6.552851221051171</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089734</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V33" t="n">
-        <v>136.9387366518155</v>
+        <v>27.18194424736942</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897876</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>3.845937771437775</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064984</v>
+        <v>21.96844096064983</v>
       </c>
       <c r="T34" t="n">
         <v>10.29393777257499</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>52.45339967932712</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>156.1112408795969</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G38" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2258905735926</v>
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R39" t="n">
-        <v>37.20799123607075</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4583944746289</v>
+        <v>199.4091311618882</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.2086824627816</v>
       </c>
       <c r="D41" t="n">
-        <v>96.77534472383005</v>
+        <v>96.77534472383007</v>
       </c>
       <c r="E41" t="n">
         <v>130.4820971432389</v>
       </c>
       <c r="F41" t="n">
-        <v>162.2024347216162</v>
+        <v>162.2024347216163</v>
       </c>
       <c r="G41" t="n">
         <v>177.8410220272076</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889553</v>
+        <v>9.153699692888878</v>
       </c>
       <c r="V41" t="n">
-        <v>79.88296869075478</v>
+        <v>79.88296869075481</v>
       </c>
       <c r="W41" t="n">
-        <v>96.89964890736965</v>
+        <v>96.89964890736968</v>
       </c>
       <c r="X41" t="n">
         <v>118.7858993763089</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>111.7266693387981</v>
+        <v>57.01746479529754</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.65973382876775</v>
+        <v>47.65973382876778</v>
       </c>
       <c r="V43" t="n">
-        <v>4.112200266052668</v>
+        <v>4.112200266052696</v>
       </c>
       <c r="W43" t="n">
-        <v>49.31389217093809</v>
+        <v>49.31389217093812</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.2086824627816</v>
       </c>
       <c r="D44" t="n">
-        <v>96.77534472383005</v>
+        <v>96.77534472383007</v>
       </c>
       <c r="E44" t="n">
         <v>130.4820971432389</v>
       </c>
       <c r="F44" t="n">
-        <v>162.2024347216162</v>
+        <v>162.2024347216163</v>
       </c>
       <c r="G44" t="n">
         <v>177.8410220272076</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.153699692889013</v>
+        <v>9.153699692889042</v>
       </c>
       <c r="V44" t="n">
-        <v>79.88296869075478</v>
+        <v>79.88296869075481</v>
       </c>
       <c r="W44" t="n">
-        <v>96.89964890736965</v>
+        <v>96.89964890736968</v>
       </c>
       <c r="X44" t="n">
         <v>118.7858993763089</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>107.8024994826853</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>54.64570261261464</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>25.70776865861436</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.65973382876775</v>
+        <v>47.65973382876778</v>
       </c>
       <c r="V46" t="n">
-        <v>4.112200266052668</v>
+        <v>4.112200266052696</v>
       </c>
       <c r="W46" t="n">
-        <v>49.31389217093809</v>
+        <v>49.31389217093812</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.38515743055336</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="C11" t="n">
-        <v>78.38515743055336</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="D11" t="n">
-        <v>78.38515743055336</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="E11" t="n">
-        <v>78.38515743055336</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="F11" t="n">
-        <v>78.38515743055336</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="G11" t="n">
-        <v>78.38515743055336</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055336</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I11" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K11" t="n">
-        <v>15.08499016404652</v>
+        <v>138.1928431005173</v>
       </c>
       <c r="L11" t="n">
-        <v>201.7617434441223</v>
+        <v>184.9661813308113</v>
       </c>
       <c r="M11" t="n">
-        <v>388.438496724198</v>
+        <v>371.6429346108871</v>
       </c>
       <c r="N11" t="n">
-        <v>575.1152500042738</v>
+        <v>558.3196878909629</v>
       </c>
       <c r="O11" t="n">
-        <v>754.2495082023262</v>
+        <v>592.5963715243926</v>
       </c>
       <c r="P11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112275</v>
+        <v>737.5517418112278</v>
       </c>
       <c r="S11" t="n">
         <v>687.8752890379867</v>
       </c>
       <c r="T11" t="n">
-        <v>643.2947222090423</v>
+        <v>643.2947222090422</v>
       </c>
       <c r="U11" t="n">
-        <v>570.7483936365867</v>
+        <v>570.7483936365861</v>
       </c>
       <c r="V11" t="n">
-        <v>426.7583590056809</v>
+        <v>426.7583590056802</v>
       </c>
       <c r="W11" t="n">
-        <v>265.5797584994066</v>
+        <v>375.9442680428625</v>
       </c>
       <c r="X11" t="n">
-        <v>265.5797584994066</v>
+        <v>375.9442680428625</v>
       </c>
       <c r="Y11" t="n">
-        <v>265.5797584994066</v>
+        <v>375.9442680428625</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.36630551739055</v>
+        <v>24.3663055173907</v>
       </c>
       <c r="C12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635112</v>
+        <v>53.07705719635133</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R12" t="n">
-        <v>754.2495082023262</v>
+        <v>618.1801765352213</v>
       </c>
       <c r="S12" t="n">
-        <v>740.8577884361479</v>
+        <v>459.1728797916712</v>
       </c>
       <c r="T12" t="n">
-        <v>550.390740910308</v>
+        <v>422.1622236084913</v>
       </c>
       <c r="U12" t="n">
-        <v>359.923693384468</v>
+        <v>362.6688818464963</v>
       </c>
       <c r="V12" t="n">
-        <v>198.5206854939984</v>
+        <v>299.7201226638225</v>
       </c>
       <c r="W12" t="n">
-        <v>109.253075137982</v>
+        <v>109.2530751379825</v>
       </c>
       <c r="X12" t="n">
-        <v>69.87603966837064</v>
+        <v>69.87603966837094</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.36630551739055</v>
+        <v>24.3663055173907</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G13" t="n">
-        <v>15.08499016404652</v>
+        <v>17.34926113099363</v>
       </c>
       <c r="H13" t="n">
-        <v>15.08499016404652</v>
+        <v>17.34926113099363</v>
       </c>
       <c r="I13" t="n">
-        <v>15.08499016404652</v>
+        <v>17.34926113099363</v>
       </c>
       <c r="J13" t="n">
-        <v>15.08499016404652</v>
+        <v>17.34926113099363</v>
       </c>
       <c r="K13" t="n">
-        <v>15.08499016404652</v>
+        <v>17.34926113099363</v>
       </c>
       <c r="L13" t="n">
-        <v>159.8232296193046</v>
+        <v>17.34926113099363</v>
       </c>
       <c r="M13" t="n">
-        <v>189.7470696924332</v>
+        <v>168.954307883194</v>
       </c>
       <c r="N13" t="n">
-        <v>349.9613012161978</v>
+        <v>329.1685394069585</v>
       </c>
       <c r="O13" t="n">
-        <v>349.9613012161978</v>
+        <v>468.6318884260462</v>
       </c>
       <c r="P13" t="n">
-        <v>468.6318884260449</v>
+        <v>468.6318884260462</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612847</v>
+        <v>519.2459201612859</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577479</v>
+        <v>493.8989154577488</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111546</v>
+        <v>436.2163212111554</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272632</v>
+        <v>390.3261544272639</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791727</v>
+        <v>278.8848418791732</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701882</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980439</v>
+        <v>98.31875740980468</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456479</v>
+        <v>54.28865025456494</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.38515743055353</v>
+        <v>219.1027456044721</v>
       </c>
       <c r="C14" t="n">
-        <v>78.38515743055353</v>
+        <v>219.1027456044721</v>
       </c>
       <c r="D14" t="n">
-        <v>78.38515743055353</v>
+        <v>219.1027456044721</v>
       </c>
       <c r="E14" t="n">
-        <v>78.38515743055353</v>
+        <v>219.1027456044721</v>
       </c>
       <c r="F14" t="n">
-        <v>78.38515743055353</v>
+        <v>219.1027456044721</v>
       </c>
       <c r="G14" t="n">
-        <v>78.38515743055353</v>
+        <v>78.38515743055382</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055353</v>
+        <v>78.38515743055382</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>15.08499016404653</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>185.0137379722658</v>
+        <v>285.5745218649279</v>
       </c>
       <c r="L14" t="n">
-        <v>231.7870762025598</v>
+        <v>332.3478600952219</v>
       </c>
       <c r="M14" t="n">
-        <v>418.4638294826356</v>
+        <v>519.0246133752977</v>
       </c>
       <c r="N14" t="n">
-        <v>493.8510794158736</v>
+        <v>705.7013666553735</v>
       </c>
       <c r="O14" t="n">
-        <v>680.5278326959494</v>
+        <v>739.9780502888032</v>
       </c>
       <c r="P14" t="n">
-        <v>680.5278326959494</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R14" t="n">
-        <v>737.5517418112275</v>
+        <v>737.5517418112278</v>
       </c>
       <c r="S14" t="n">
-        <v>687.8752890379865</v>
+        <v>687.8752890379866</v>
       </c>
       <c r="T14" t="n">
-        <v>643.294722209042</v>
+        <v>643.2947222090421</v>
       </c>
       <c r="U14" t="n">
-        <v>570.7483936365863</v>
+        <v>570.7483936365866</v>
       </c>
       <c r="V14" t="n">
-        <v>426.7583590056805</v>
+        <v>570.7483936365866</v>
       </c>
       <c r="W14" t="n">
-        <v>265.5797584994061</v>
+        <v>409.5697931303121</v>
       </c>
       <c r="X14" t="n">
-        <v>265.5797584994061</v>
+        <v>409.5697931303121</v>
       </c>
       <c r="Y14" t="n">
-        <v>265.5797584994061</v>
+        <v>409.5697931303121</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.36630551739061</v>
+        <v>24.3663055173907</v>
       </c>
       <c r="C15" t="n">
         <v>15.08499016404653</v>
@@ -5358,49 +5358,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635133</v>
       </c>
       <c r="L15" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110303</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.33384509054</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R15" t="n">
-        <v>747.33384509054</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="S15" t="n">
-        <v>733.9421253243615</v>
+        <v>556.8667975647002</v>
       </c>
       <c r="T15" t="n">
-        <v>543.4750777985216</v>
+        <v>448.481074781834</v>
       </c>
       <c r="U15" t="n">
-        <v>483.9817360365268</v>
+        <v>388.9877330198391</v>
       </c>
       <c r="V15" t="n">
-        <v>421.0329768538531</v>
+        <v>198.5206854939991</v>
       </c>
       <c r="W15" t="n">
-        <v>230.5659293280131</v>
+        <v>109.2530751379825</v>
       </c>
       <c r="X15" t="n">
-        <v>69.87603966837075</v>
+        <v>69.87603966837094</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.36630551739061</v>
+        <v>24.3663055173907</v>
       </c>
     </row>
     <row r="16">
@@ -5428,55 +5428,55 @@
         <v>15.08499016404653</v>
       </c>
       <c r="H16" t="n">
-        <v>15.08499016404653</v>
+        <v>27.46651600465421</v>
       </c>
       <c r="I16" t="n">
-        <v>15.08499016404653</v>
+        <v>27.46651600465421</v>
       </c>
       <c r="J16" t="n">
-        <v>15.08499016404653</v>
+        <v>84.98620707126582</v>
       </c>
       <c r="K16" t="n">
-        <v>125.2889991250443</v>
+        <v>84.98620707126582</v>
       </c>
       <c r="L16" t="n">
-        <v>125.2889991250443</v>
+        <v>84.98620707126582</v>
       </c>
       <c r="M16" t="n">
-        <v>276.8940458772448</v>
+        <v>84.98620707126582</v>
       </c>
       <c r="N16" t="n">
-        <v>379.7825711421976</v>
+        <v>245.2004385950303</v>
       </c>
       <c r="O16" t="n">
-        <v>519.2459201612853</v>
+        <v>384.663787614118</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612853</v>
+        <v>503.3343748239649</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612853</v>
+        <v>519.2459201612859</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577483</v>
+        <v>493.8989154577488</v>
       </c>
       <c r="S16" t="n">
-        <v>436.216321211155</v>
+        <v>436.2163212111554</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272635</v>
+        <v>390.3261544272639</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791729</v>
+        <v>278.8848418791732</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701884</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W16" t="n">
-        <v>98.3187574098045</v>
+        <v>98.31875740980468</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456486</v>
+        <v>54.28865025456494</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340406</v>
+        <v>463.5335379340413</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844268</v>
+        <v>410.2194918844276</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438552</v>
+        <v>369.4643728438557</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372138</v>
+        <v>294.6620291372142</v>
       </c>
       <c r="F17" t="n">
-        <v>187.818940401909</v>
+        <v>187.8189404019088</v>
       </c>
       <c r="G17" t="n">
         <v>65.179298832673</v>
@@ -5510,55 +5510,55 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>70.94848926897383</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J17" t="n">
-        <v>116.101177858573</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K17" t="n">
-        <v>302.7779311386488</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L17" t="n">
-        <v>489.4546844187246</v>
+        <v>61.85832839434057</v>
       </c>
       <c r="M17" t="n">
-        <v>570.3749951418763</v>
+        <v>142.7786391174924</v>
       </c>
       <c r="N17" t="n">
-        <v>645.7622450751144</v>
+        <v>329.4553923975682</v>
       </c>
       <c r="O17" t="n">
-        <v>680.0389287085439</v>
+        <v>363.7320760309979</v>
       </c>
       <c r="P17" t="n">
-        <v>680.0389287085439</v>
+        <v>498.3566532424735</v>
       </c>
       <c r="Q17" t="n">
-        <v>680.0389287085439</v>
+        <v>685.0334065225493</v>
       </c>
       <c r="R17" t="n">
-        <v>680.0389287085439</v>
+        <v>685.0334065225493</v>
       </c>
       <c r="S17" t="n">
-        <v>680.0389287085439</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T17" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557697</v>
+        <v>730.5573952557702</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338446</v>
+        <v>689.6767164338453</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059204</v>
+        <v>626.6887139059211</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075479</v>
+        <v>540.9705567075486</v>
       </c>
     </row>
     <row r="18">
@@ -5595,49 +5595,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635123</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110303</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.33384509054</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R18" t="n">
-        <v>611.2645134234348</v>
+        <v>618.1801765352213</v>
       </c>
       <c r="S18" t="n">
-        <v>611.2645134234348</v>
+        <v>427.7131290093813</v>
       </c>
       <c r="T18" t="n">
-        <v>420.7974658975948</v>
+        <v>427.7131290093813</v>
       </c>
       <c r="U18" t="n">
-        <v>230.3304183717548</v>
+        <v>427.7131290093813</v>
       </c>
       <c r="V18" t="n">
-        <v>39.86337084591486</v>
+        <v>237.2460814835413</v>
       </c>
       <c r="W18" t="n">
-        <v>39.86337084591486</v>
+        <v>237.2460814835413</v>
       </c>
       <c r="X18" t="n">
-        <v>39.86337084591486</v>
+        <v>237.2460814835413</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.86337084591486</v>
+        <v>46.77903395770124</v>
       </c>
     </row>
     <row r="19">
@@ -5729,19 +5729,19 @@
         <v>463.5335379340409</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844272</v>
+        <v>410.219491884427</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438554</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372139</v>
+        <v>294.6620291372142</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019088</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G20" t="n">
-        <v>65.179298832673</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404653</v>
@@ -5750,49 +5750,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="J20" t="n">
-        <v>15.08499016404653</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="K20" t="n">
-        <v>15.08499016404653</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="L20" t="n">
-        <v>61.85832839434049</v>
+        <v>295.2477561771161</v>
       </c>
       <c r="M20" t="n">
-        <v>156.3913004262185</v>
+        <v>376.1680669002679</v>
       </c>
       <c r="N20" t="n">
-        <v>343.0680537062942</v>
+        <v>451.5553168335061</v>
       </c>
       <c r="O20" t="n">
-        <v>377.3447373397238</v>
+        <v>638.2320701135819</v>
       </c>
       <c r="P20" t="n">
-        <v>377.3447373397238</v>
+        <v>638.2320701135819</v>
       </c>
       <c r="Q20" t="n">
-        <v>564.0214906197996</v>
+        <v>638.2320701135819</v>
       </c>
       <c r="R20" t="n">
-        <v>564.0214906197996</v>
+        <v>638.2320701135819</v>
       </c>
       <c r="S20" t="n">
-        <v>633.2375922995768</v>
+        <v>707.4481717933593</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933592</v>
+        <v>707.4481717933593</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557695</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W20" t="n">
         <v>689.6767164338446</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059204</v>
+        <v>626.6887139059205</v>
       </c>
       <c r="Y20" t="n">
         <v>540.970556707548</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.08499016404653</v>
+        <v>175.9327025130201</v>
       </c>
       <c r="C21" t="n">
-        <v>15.08499016404653</v>
+        <v>175.9327025130201</v>
       </c>
       <c r="D21" t="n">
-        <v>15.08499016404653</v>
+        <v>15.15258627405186</v>
       </c>
       <c r="E21" t="n">
         <v>15.08499016404653</v>
@@ -5832,49 +5832,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635133</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110303</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.33384509054</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R21" t="n">
-        <v>747.33384509054</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="S21" t="n">
-        <v>556.8667975646999</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="T21" t="n">
-        <v>396.0190852157265</v>
+        <v>556.8667975647002</v>
       </c>
       <c r="U21" t="n">
-        <v>205.5520376898865</v>
+        <v>556.8667975647002</v>
       </c>
       <c r="V21" t="n">
-        <v>205.5520376898865</v>
+        <v>556.8667975647002</v>
       </c>
       <c r="W21" t="n">
-        <v>15.08499016404653</v>
+        <v>556.8667975647002</v>
       </c>
       <c r="X21" t="n">
-        <v>15.08499016404653</v>
+        <v>366.3997500388601</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.08499016404653</v>
+        <v>175.9327025130201</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340415</v>
+        <v>463.5335379340412</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844277</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438558</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372144</v>
+        <v>294.6620291372142</v>
       </c>
       <c r="F23" t="n">
-        <v>187.818940401909</v>
+        <v>187.8189404019088</v>
       </c>
       <c r="G23" t="n">
-        <v>65.179298832673</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J23" t="n">
-        <v>15.08499016404654</v>
+        <v>41.99990691914596</v>
       </c>
       <c r="K23" t="n">
-        <v>201.7617434441224</v>
+        <v>228.6766601992217</v>
       </c>
       <c r="L23" t="n">
-        <v>248.5350816744163</v>
+        <v>275.4499984295157</v>
       </c>
       <c r="M23" t="n">
-        <v>380.896001642175</v>
+        <v>356.3703091526676</v>
       </c>
       <c r="N23" t="n">
-        <v>567.5727549222509</v>
+        <v>431.7575590859057</v>
       </c>
       <c r="O23" t="n">
-        <v>754.2495082023268</v>
+        <v>466.0342427193353</v>
       </c>
       <c r="P23" t="n">
-        <v>754.2495082023268</v>
+        <v>652.7109959994111</v>
       </c>
       <c r="Q23" t="n">
-        <v>754.2495082023268</v>
+        <v>652.7109959994111</v>
       </c>
       <c r="R23" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S23" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557702</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338453</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059211</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075487</v>
+        <v>540.9705567075484</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46.7790339577013</v>
+        <v>39.86337084591486</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7790339577013</v>
+        <v>39.86337084591486</v>
       </c>
       <c r="D24" t="n">
-        <v>15.08499016404654</v>
+        <v>39.86337084591486</v>
       </c>
       <c r="E24" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F24" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G24" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H24" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I24" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635155</v>
+        <v>53.07705719635111</v>
       </c>
       <c r="L24" t="n">
-        <v>170.4486221681698</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486679</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287438</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110308</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023268</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R24" t="n">
-        <v>618.1801765352216</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="S24" t="n">
-        <v>618.1801765352216</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="T24" t="n">
-        <v>427.7131290093815</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2460814835414</v>
+        <v>420.7974658975948</v>
       </c>
       <c r="V24" t="n">
-        <v>237.2460814835414</v>
+        <v>420.7974658975948</v>
       </c>
       <c r="W24" t="n">
-        <v>237.2460814835414</v>
+        <v>230.3304183717548</v>
       </c>
       <c r="X24" t="n">
-        <v>237.2460814835414</v>
+        <v>39.86337084591486</v>
       </c>
       <c r="Y24" t="n">
-        <v>46.7790339577013</v>
+        <v>39.86337084591486</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="26">
@@ -6203,37 +6203,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792735</v>
+        <v>882.8924400792737</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962485</v>
+        <v>757.3316491962488</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471541</v>
+        <v>597.7236336471544</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693961</v>
       </c>
       <c r="G26" t="n">
         <v>198.6295596577068</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662743</v>
+        <v>63.72957914662742</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847219</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629838</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946299</v>
+        <v>634.0887466946303</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6242,19 +6242,19 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870716</v>
       </c>
       <c r="R26" t="n">
         <v>1796.083086100842</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U26" t="n">
         <v>1735.75648745189</v>
@@ -6266,10 +6266,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.5761741066418</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K27" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432154</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261399</v>
       </c>
       <c r="M27" t="n">
-        <v>373.0070382066378</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N27" t="n">
-        <v>577.9583061004876</v>
+        <v>577.9583061004878</v>
       </c>
       <c r="O27" t="n">
-        <v>709.7015933827745</v>
+        <v>709.7015933827747</v>
       </c>
       <c r="P27" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.4450312622841</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="R27" t="n">
-        <v>650.375699595179</v>
+        <v>766.3575702132069</v>
       </c>
       <c r="S27" t="n">
-        <v>456.8530209153083</v>
+        <v>766.3575702132069</v>
       </c>
       <c r="T27" t="n">
-        <v>455.334614574025</v>
+        <v>764.8391638719236</v>
       </c>
       <c r="U27" t="n">
-        <v>215.7103138983379</v>
+        <v>740.8380719518252</v>
       </c>
       <c r="V27" t="n">
-        <v>188.2538045575606</v>
+        <v>497.7583538554593</v>
       </c>
       <c r="W27" t="n">
-        <v>134.4784440434406</v>
+        <v>228.3597845857506</v>
       </c>
       <c r="X27" t="n">
-        <v>130.5936584157255</v>
+        <v>224.4749989580356</v>
       </c>
       <c r="Y27" t="n">
-        <v>120.5761741066418</v>
+        <v>214.4575146489519</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.28965252863637</v>
       </c>
       <c r="M28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.28965252863637</v>
       </c>
       <c r="N28" t="n">
-        <v>102.8899420824477</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="O28" t="n">
-        <v>102.8899420824477</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="P28" t="n">
-        <v>256.3464833623374</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.3464833623374</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177467</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757517</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V28" t="n">
         <v>125.7908590024694</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398195</v>
+        <v>48.17092928398196</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063873</v>
+        <v>39.63307197063875</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792738</v>
+        <v>882.8924400792731</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962489</v>
+        <v>757.3316491962483</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471547</v>
+        <v>597.723633647154</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693964</v>
+        <v>406.0748730693957</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577075</v>
+        <v>198.6295596577067</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662811</v>
+        <v>63.72957914662739</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847219</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629835</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946303</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191345</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6479,10 +6479,10 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870716</v>
       </c>
       <c r="R29" t="n">
         <v>1796.083086100842</v>
@@ -6497,16 +6497,16 @@
         <v>1735.75648745189</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.92166172201684</v>
+        <v>225.3339359890531</v>
       </c>
       <c r="C30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432154</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261399</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066378</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N30" t="n">
-        <v>577.9583061004876</v>
+        <v>577.9583061004878</v>
       </c>
       <c r="O30" t="n">
-        <v>709.7015933827745</v>
+        <v>709.7015933827747</v>
       </c>
       <c r="P30" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622841</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="R30" t="n">
-        <v>650.375699595179</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="S30" t="n">
-        <v>456.8530209153083</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="T30" t="n">
-        <v>455.334614574025</v>
+        <v>784.926624921001</v>
       </c>
       <c r="U30" t="n">
-        <v>215.7103138983379</v>
+        <v>760.9255330009026</v>
       </c>
       <c r="V30" t="n">
-        <v>188.2538045575607</v>
+        <v>517.8458149045367</v>
       </c>
       <c r="W30" t="n">
-        <v>134.4784440434407</v>
+        <v>248.4472456348281</v>
       </c>
       <c r="X30" t="n">
-        <v>45.93914603110049</v>
+        <v>244.5624600071131</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.92166172201684</v>
+        <v>234.5449756980294</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="M31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="N31" t="n">
-        <v>180.8898523171606</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="O31" t="n">
-        <v>180.8898523171606</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="P31" t="n">
-        <v>180.8898523171606</v>
+        <v>189.3782030019066</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177463</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757513</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695572</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024692</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398183</v>
+        <v>48.17092928398191</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063867</v>
+        <v>39.63307197063872</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="32">
@@ -6677,43 +6677,43 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792735</v>
+        <v>882.892440079273</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962483</v>
+        <v>757.331649196248</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471541</v>
+        <v>597.7236336471537</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693955</v>
       </c>
       <c r="G32" t="n">
-        <v>198.629559657707</v>
+        <v>198.6295596577066</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662734</v>
+        <v>63.72957914662733</v>
       </c>
       <c r="I32" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J32" t="n">
         <v>171.2683996847218</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629839</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946294</v>
+        <v>634.0887466946303</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191336</v>
+        <v>926.3413643191348</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153724</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
         <v>1655.109002436483</v>
@@ -6725,22 +6725,22 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S32" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451889</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
         <v>1183.2548485873</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.3339359890531</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J33" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432154</v>
       </c>
       <c r="L33" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261399</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066378</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N33" t="n">
-        <v>577.9583061004876</v>
+        <v>577.9583061004878</v>
       </c>
       <c r="O33" t="n">
-        <v>709.7015933827745</v>
+        <v>709.7015933827747</v>
       </c>
       <c r="P33" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="Q33" t="n">
-        <v>786.4450312622841</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="R33" t="n">
-        <v>650.375699595179</v>
+        <v>786.4450312622844</v>
       </c>
       <c r="S33" t="n">
-        <v>456.8530209153083</v>
+        <v>592.9223525824137</v>
       </c>
       <c r="T33" t="n">
-        <v>455.334614574025</v>
+        <v>586.3033109449883</v>
       </c>
       <c r="U33" t="n">
-        <v>431.3335226539267</v>
+        <v>346.6790102693013</v>
       </c>
       <c r="V33" t="n">
-        <v>293.0115664399716</v>
+        <v>319.2225009285241</v>
       </c>
       <c r="W33" t="n">
-        <v>239.2362059258517</v>
+        <v>49.8239316588154</v>
       </c>
       <c r="X33" t="n">
-        <v>235.3514202981367</v>
+        <v>45.93914603110048</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.3339359890531</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="M34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="N34" t="n">
-        <v>112.8332968425532</v>
+        <v>92.04053503331247</v>
       </c>
       <c r="O34" t="n">
-        <v>112.8332968425532</v>
+        <v>266.289838122443</v>
       </c>
       <c r="P34" t="n">
         <v>266.289838122443</v>
@@ -6892,16 +6892,16 @@
         <v>157.7525140695571</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024691</v>
+        <v>125.7908590024692</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398178</v>
+        <v>48.17092928398179</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063865</v>
+        <v>39.63307197063866</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837462</v>
+        <v>623.0119765837464</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248355</v>
+        <v>544.0768043248357</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749669</v>
+        <v>477.7005590749671</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590287</v>
+        <v>377.2770891590289</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144265</v>
+        <v>244.8128742144268</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589358</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1901826957315</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K35" t="n">
-        <v>260.6580980656354</v>
+        <v>278.690482087853</v>
       </c>
       <c r="L35" t="n">
-        <v>307.4314362959294</v>
+        <v>325.463820318147</v>
       </c>
       <c r="M35" t="n">
-        <v>388.3517470190811</v>
+        <v>406.3841310412988</v>
       </c>
       <c r="N35" t="n">
-        <v>463.7389969523192</v>
+        <v>664.2379415711814</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5928074822018</v>
+        <v>698.5146252046111</v>
       </c>
       <c r="P35" t="n">
-        <v>976.0386714052348</v>
+        <v>952.9604891276442</v>
       </c>
       <c r="Q35" t="n">
-        <v>976.0386714052348</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="R35" t="n">
-        <v>976.0386714052348</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="S35" t="n">
-        <v>1020.14350728728</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.14350728728</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U35" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426624</v>
+        <v>992.5203387426626</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114408</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742196</v>
+        <v>837.4094049742198</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665503</v>
+        <v>726.0701215665505</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.83667155797031</v>
+        <v>263.2321778243269</v>
       </c>
       <c r="C36" t="n">
-        <v>20.83667155797031</v>
+        <v>73.81990355729064</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83667155797031</v>
+        <v>73.81990355729064</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83667155797031</v>
+        <v>73.81990355729064</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027497</v>
+        <v>58.82873859027501</v>
       </c>
       <c r="L36" t="n">
         <v>176.2003035620933</v>
       </c>
       <c r="M36" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425915</v>
       </c>
       <c r="N36" t="n">
-        <v>562.873315936441</v>
+        <v>562.8733159364413</v>
       </c>
       <c r="O36" t="n">
-        <v>694.616603218728</v>
+        <v>694.6166032187282</v>
       </c>
       <c r="P36" t="n">
-        <v>778.2757042100239</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.3600410982376</v>
+        <v>771.3600410982378</v>
       </c>
       <c r="R36" t="n">
-        <v>635.2907094311324</v>
+        <v>635.2907094311327</v>
       </c>
       <c r="S36" t="n">
-        <v>477.6025873305294</v>
+        <v>441.768030751262</v>
       </c>
       <c r="T36" t="n">
-        <v>260.4609722336574</v>
+        <v>441.768030751262</v>
       </c>
       <c r="U36" t="n">
-        <v>20.83667155797031</v>
+        <v>441.768030751262</v>
       </c>
       <c r="V36" t="n">
-        <v>20.83667155797031</v>
+        <v>441.768030751262</v>
       </c>
       <c r="W36" t="n">
-        <v>20.83667155797031</v>
+        <v>441.768030751262</v>
       </c>
       <c r="X36" t="n">
-        <v>20.83667155797031</v>
+        <v>441.768030751262</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.83667155797031</v>
+        <v>441.768030751262</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="R37" t="n">
-        <v>20.83667155797031</v>
+        <v>37.60118863100834</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633964</v>
+        <v>37.60118863100834</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633964</v>
+        <v>37.60118863100834</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330161</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330162</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837463</v>
+        <v>623.0119765837462</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248357</v>
+        <v>544.0768043248354</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749671</v>
+        <v>477.7005590749667</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590289</v>
+        <v>377.2770891590285</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144272</v>
+        <v>244.8128742144262</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516582</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J38" t="n">
-        <v>51.58890486516582</v>
+        <v>30.95653845790218</v>
       </c>
       <c r="K38" t="n">
-        <v>51.58890486516582</v>
+        <v>30.95653845790218</v>
       </c>
       <c r="L38" t="n">
-        <v>309.4427153950484</v>
+        <v>288.8103489877848</v>
       </c>
       <c r="M38" t="n">
-        <v>399.0460797831083</v>
+        <v>369.7306597109367</v>
       </c>
       <c r="N38" t="n">
-        <v>474.4333297163464</v>
+        <v>627.5844702408193</v>
       </c>
       <c r="O38" t="n">
-        <v>508.710013349776</v>
+        <v>661.861153874249</v>
       </c>
       <c r="P38" t="n">
-        <v>763.155877272809</v>
+        <v>916.307017797282</v>
       </c>
       <c r="Q38" t="n">
-        <v>943.716260882097</v>
+        <v>916.307017797282</v>
       </c>
       <c r="R38" t="n">
-        <v>1020.14350728728</v>
+        <v>992.7342642024653</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.14350728728</v>
+        <v>992.7342642024653</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.14350728728</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426624</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114407</v>
       </c>
       <c r="X38" t="n">
         <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665504</v>
+        <v>726.0701215665503</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027497</v>
+        <v>58.82873859027501</v>
       </c>
       <c r="L39" t="n">
         <v>176.2003035620933</v>
       </c>
       <c r="M39" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425915</v>
       </c>
       <c r="N39" t="n">
-        <v>562.873315936441</v>
+        <v>562.8733159364413</v>
       </c>
       <c r="O39" t="n">
-        <v>694.616603218728</v>
+        <v>694.6166032187282</v>
       </c>
       <c r="P39" t="n">
-        <v>778.2757042100239</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982378</v>
       </c>
       <c r="R39" t="n">
-        <v>740.6918746786394</v>
+        <v>635.2907094311327</v>
       </c>
       <c r="S39" t="n">
-        <v>740.6918746786394</v>
+        <v>441.768030751262</v>
       </c>
       <c r="T39" t="n">
-        <v>523.5502595817674</v>
+        <v>441.768030751262</v>
       </c>
       <c r="U39" t="n">
-        <v>283.9259589060803</v>
+        <v>441.768030751262</v>
       </c>
       <c r="V39" t="n">
-        <v>283.9259589060803</v>
+        <v>441.768030751262</v>
       </c>
       <c r="W39" t="n">
-        <v>20.83667155797031</v>
+        <v>240.3446659412739</v>
       </c>
       <c r="X39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83667155797031</v>
+        <v>37.6011886310084</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83667155797031</v>
+        <v>37.6011886310084</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.83667155797031</v>
+        <v>37.6011886310084</v>
       </c>
       <c r="R40" t="n">
-        <v>37.60118863100834</v>
+        <v>37.6011886310084</v>
       </c>
       <c r="S40" t="n">
-        <v>37.60118863100834</v>
+        <v>37.6011886310084</v>
       </c>
       <c r="T40" t="n">
-        <v>37.60118863100834</v>
+        <v>37.6011886310084</v>
       </c>
       <c r="U40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676714</v>
+        <v>818.5041758676716</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1923754002152</v>
+        <v>708.1923754002154</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418009</v>
+        <v>610.4395019418012</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173172</v>
+        <v>478.6394038173173</v>
       </c>
       <c r="F41" t="n">
         <v>314.7985606641695</v>
@@ -7409,25 +7409,25 @@
         <v>28.06910159062235</v>
       </c>
       <c r="J41" t="n">
-        <v>190.670379421188</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K41" t="n">
-        <v>238.0473264929549</v>
+        <v>260.0383433367452</v>
       </c>
       <c r="L41" t="n">
-        <v>284.8206647232489</v>
+        <v>545.3985283362524</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3278222156139</v>
+        <v>864.9056858286175</v>
       </c>
       <c r="N41" t="n">
-        <v>918.3019189180653</v>
+        <v>1053.216853066782</v>
       </c>
       <c r="O41" t="n">
-        <v>952.5786025514949</v>
+        <v>1326.080383469425</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.272233167332</v>
+        <v>1326.080383469425</v>
       </c>
       <c r="Q41" t="n">
         <v>1326.080383469425</v>
@@ -7442,19 +7442,19 @@
         <v>1403.455079531117</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.208918225168</v>
+        <v>1394.208918225169</v>
       </c>
       <c r="V41" t="n">
         <v>1313.51905086077</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X41" t="n">
         <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.938949059021</v>
+        <v>952.9389490590213</v>
       </c>
     </row>
     <row r="42">
@@ -7491,49 +7491,49 @@
         <v>28.06910159062235</v>
       </c>
       <c r="K42" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292704</v>
       </c>
       <c r="L42" t="n">
-        <v>183.4327335947453</v>
+        <v>183.4327335947454</v>
       </c>
       <c r="M42" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752436</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690931</v>
+        <v>570.1057459690933</v>
       </c>
       <c r="O42" t="n">
-        <v>701.84903325138</v>
+        <v>701.8490332513802</v>
       </c>
       <c r="P42" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.5924711308896</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="R42" t="n">
-        <v>778.5924711308896</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="S42" t="n">
-        <v>778.5924711308896</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="T42" t="n">
-        <v>778.5924711308896</v>
+        <v>568.3665191458042</v>
       </c>
       <c r="U42" t="n">
-        <v>538.9681704552025</v>
+        <v>328.7422184701171</v>
       </c>
       <c r="V42" t="n">
-        <v>538.9681704552025</v>
+        <v>85.66250037375119</v>
       </c>
       <c r="W42" t="n">
-        <v>426.1129489008611</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X42" t="n">
-        <v>206.6049545175574</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.6049545175574</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
     <row r="43">
@@ -7582,28 +7582,28 @@
         <v>28.06910159062235</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1759968085602</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1759968085602</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1759968085602</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1759968085602</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697665</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449921</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W43" t="n">
         <v>28.06910159062235</v>
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676711</v>
+        <v>818.5041758676712</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002148</v>
+        <v>708.1923754002149</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418006</v>
+        <v>610.4395019418007</v>
       </c>
       <c r="E44" t="n">
         <v>478.6394038173169</v>
@@ -7640,46 +7640,46 @@
         <v>135.1611646770912</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K44" t="n">
-        <v>260.0383433367451</v>
+        <v>260.0383433367452</v>
       </c>
       <c r="L44" t="n">
-        <v>545.3985283362523</v>
+        <v>306.8116815670392</v>
       </c>
       <c r="M44" t="n">
-        <v>626.318839059404</v>
+        <v>626.3188390594044</v>
       </c>
       <c r="N44" t="n">
-        <v>701.7060889926421</v>
+        <v>940.2929357618558</v>
       </c>
       <c r="O44" t="n">
-        <v>974.5696193952849</v>
+        <v>1179.76144891528</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.263250011122</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="Q44" t="n">
-        <v>1326.080383469424</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.755396567412</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="S44" t="n">
-        <v>1385.107999142262</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.208918225168</v>
+        <v>1394.208918225169</v>
       </c>
       <c r="V44" t="n">
         <v>1313.51905086077</v>
@@ -7691,7 +7691,7 @@
         <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590206</v>
+        <v>952.9389490590208</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K45" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292704</v>
       </c>
       <c r="L45" t="n">
-        <v>183.4327335947453</v>
+        <v>183.4327335947454</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752436</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690931</v>
+        <v>570.1057459690933</v>
       </c>
       <c r="O45" t="n">
-        <v>701.84903325138</v>
+        <v>701.8490332513802</v>
       </c>
       <c r="P45" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="R45" t="n">
-        <v>785.508134242676</v>
+        <v>649.438802575571</v>
       </c>
       <c r="S45" t="n">
-        <v>785.508134242676</v>
+        <v>540.547388956697</v>
       </c>
       <c r="T45" t="n">
-        <v>568.366519145804</v>
+        <v>540.547388956697</v>
       </c>
       <c r="U45" t="n">
-        <v>328.7422184701169</v>
+        <v>540.547388956697</v>
       </c>
       <c r="V45" t="n">
-        <v>273.5445390634354</v>
+        <v>297.467670860331</v>
       </c>
       <c r="W45" t="n">
-        <v>247.577095973926</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="M46" t="n">
-        <v>70.4087773907643</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="N46" t="n">
-        <v>70.4087773907643</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="O46" t="n">
-        <v>70.4087773907643</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="P46" t="n">
-        <v>70.4087773907643</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4087773907643</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="R46" t="n">
-        <v>107.6066720187313</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="S46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1759968085602</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="U46" t="n">
-        <v>82.03485152697664</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V46" t="n">
-        <v>77.8811138844992</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3734735841513</v>
+        <v>171.3734735841508</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041441</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.43493599511328</v>
+        <v>7.195214002696503</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566235</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176719</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E11" t="n">
-        <v>193.1492627370808</v>
+        <v>193.149262737081</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154581</v>
+        <v>224.8696003154583</v>
       </c>
       <c r="G11" t="n">
-        <v>240.5081876210495</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H11" t="n">
-        <v>168.688308049446</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>109.2608644480222</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701508</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938946</v>
+        <v>203.9559180938947</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.43493599511405</v>
+        <v>7.195214002696503</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566235</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
-        <v>159.442510317672</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E14" t="n">
-        <v>193.1492627370809</v>
+        <v>193.149262737081</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154582</v>
+        <v>224.8696003154583</v>
       </c>
       <c r="G14" t="n">
-        <v>240.5081876210495</v>
+        <v>101.1977753288705</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494461</v>
+        <v>168.6883080494462</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701508</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938946</v>
+        <v>203.9559180938947</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1393809.020618554</v>
+        <v>1393809.020618553</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1393809.020618554</v>
+        <v>1393809.020618553</v>
       </c>
     </row>
     <row r="7">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.9539740047</v>
+        <v>95275.95397400478</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243413</v>
+        <v>143645.0035243412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400473</v>
+        <v>95275.95397400482</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145961</v>
+        <v>46874.16014145965</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660025</v>
+        <v>72403.48181660009</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>440811.1417349353</v>
       </c>
       <c r="E4" t="n">
-        <v>331148.6906652545</v>
+        <v>331148.6906652543</v>
       </c>
       <c r="F4" t="n">
-        <v>331148.6906652544</v>
+        <v>331148.6906652543</v>
       </c>
       <c r="G4" t="n">
         <v>401611.6670699618</v>
@@ -26442,7 +26442,7 @@
         <v>402517.6175033181</v>
       </c>
       <c r="K4" t="n">
-        <v>402517.6175033182</v>
+        <v>402517.6175033181</v>
       </c>
       <c r="L4" t="n">
         <v>402517.6175033181</v>
@@ -26451,13 +26451,13 @@
         <v>401692.5905255168</v>
       </c>
       <c r="N4" t="n">
-        <v>401692.5905255168</v>
+        <v>401692.5905255167</v>
       </c>
       <c r="O4" t="n">
         <v>402079.8338982546</v>
       </c>
       <c r="P4" t="n">
-        <v>402079.8338982546</v>
+        <v>402079.8338982545</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28663.94612301865</v>
+        <v>28663.94612301864</v>
       </c>
       <c r="F5" t="n">
         <v>28663.94612301864</v>
       </c>
       <c r="G5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="H5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="I5" t="n">
         <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951488</v>
+        <v>47453.7764795149</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.7764795149</v>
       </c>
       <c r="L5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951491</v>
       </c>
       <c r="M5" t="n">
         <v>40915.013666005</v>
@@ -26506,10 +26506,10 @@
         <v>40915.013666005</v>
       </c>
       <c r="O5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152497</v>
       </c>
       <c r="P5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152497</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-474438.7417349353</v>
+        <v>-474443.2081191405</v>
       </c>
       <c r="C6" t="n">
-        <v>-474438.7417349353</v>
+        <v>-474443.2081191405</v>
       </c>
       <c r="D6" t="n">
-        <v>-474438.7417349353</v>
+        <v>-474443.2081191405</v>
       </c>
       <c r="E6" t="n">
-        <v>-640125.4789724795</v>
+        <v>-640434.8001220744</v>
       </c>
       <c r="F6" t="n">
-        <v>-359812.636788273</v>
+        <v>-360121.9579378681</v>
       </c>
       <c r="G6" t="n">
-        <v>-535563.7598852859</v>
+        <v>-535563.759885286</v>
       </c>
       <c r="H6" t="n">
-        <v>-440287.8059112812</v>
+        <v>-440287.8059112813</v>
       </c>
       <c r="I6" t="n">
         <v>-440287.8059112812</v>
       </c>
       <c r="J6" t="n">
-        <v>-593616.3975071743</v>
+        <v>-593616.3975071742</v>
       </c>
       <c r="K6" t="n">
-        <v>-449971.3939828331</v>
+        <v>-449971.393982833</v>
       </c>
       <c r="L6" t="n">
-        <v>-545247.3479568377</v>
+        <v>-545247.3479568379</v>
       </c>
       <c r="M6" t="n">
         <v>-489481.7643329814</v>
       </c>
       <c r="N6" t="n">
-        <v>-442607.6041915218</v>
+        <v>-442607.6041915216</v>
       </c>
       <c r="O6" t="n">
-        <v>-518283.5524663798</v>
+        <v>-518283.5524663796</v>
       </c>
       <c r="P6" t="n">
         <v>-445880.0706497795</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="F3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="G3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154702</v>
       </c>
       <c r="H3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="I3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="J3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="K3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="L3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="M3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="N3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="O3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="P3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F4" t="n">
         <v>188.5623770505816</v>
@@ -26808,28 +26808,28 @@
         <v>188.5623770505816</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O4" t="n">
         <v>350.8637698827794</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827794</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052691</v>
+        <v>94.37203420052671</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682451</v>
+        <v>58.59270017682456</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406678</v>
+        <v>63.30917227406661</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746288</v>
+        <v>260.458394474629</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815046</v>
+        <v>90.40537540815041</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052691</v>
+        <v>94.37203420052671</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
-        <v>76.75309993802784</v>
+        <v>76.7530999380278</v>
       </c>
       <c r="K11" t="n">
-        <v>6.684449518273205</v>
+        <v>131.0358161207688</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3165808583654</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>106.8246894514384</v>
@@ -28126,37 +28126,37 @@
         <v>112.4136397442804</v>
       </c>
       <c r="O11" t="n">
-        <v>146.3207823885079</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.04365268017751</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.67545097688969</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245553</v>
+        <v>34.17022811695722</v>
       </c>
       <c r="T12" t="n">
-        <v>26.40782189532175</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U12" t="n">
-        <v>48.66568061834863</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V12" t="n">
-        <v>80.85994310383734</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245553</v>
+        <v>78.14220652642996</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="13">
@@ -28260,7 +28260,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7006242014745</v>
+        <v>170.9877665923301</v>
       </c>
       <c r="H13" t="n">
         <v>165.8230575663656</v>
@@ -28272,49 +28272,49 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L13" t="n">
-        <v>178.3296493245553</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M13" t="n">
-        <v>55.41933954771503</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="N13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="O13" t="n">
-        <v>37.45757960830505</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3296493245553</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>76.75309993802784</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4136397442804</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.04365268017751</v>
+        <v>29.45926673424145</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.1417898722199</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,7 +28427,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245553</v>
+        <v>3.025074842490255</v>
       </c>
       <c r="T15" t="n">
-        <v>26.40782189532172</v>
+        <v>107.6683333908658</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245553</v>
+        <v>52.08654386482061</v>
       </c>
       <c r="W15" t="n">
-        <v>78.14220652643002</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
-        <v>58.2299236764247</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="16">
@@ -28500,58 +28500,58 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I16" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K16" t="n">
-        <v>178.3296493245553</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L16" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M16" t="n">
-        <v>178.3296493245553</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N16" t="n">
-        <v>120.4248955277758</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="O16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="P16" t="n">
-        <v>58.46036931460879</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.204364743505</v>
+        <v>143.2766327610009</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="17">
@@ -28582,40 +28582,40 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
+        <v>240.9968149183972</v>
+      </c>
+      <c r="J17" t="n">
+        <v>76.7530999380278</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.684449518273141</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>112.4136397442804</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>151.0280741059104</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>278.2378280274712</v>
+      </c>
+      <c r="R17" t="n">
+        <v>194.8604380517429</v>
+      </c>
+      <c r="S17" t="n">
         <v>297.4245917920612</v>
       </c>
-      <c r="J17" t="n">
-        <v>122.3618762911584</v>
-      </c>
-      <c r="K17" t="n">
-        <v>195.2468265688548</v>
-      </c>
-      <c r="L17" t="n">
-        <v>141.3165808583655</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>15.04365268017751</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>89.67545097688969</v>
-      </c>
-      <c r="R17" t="n">
-        <v>194.860438051743</v>
-      </c>
-      <c r="S17" t="n">
-        <v>227.5093375700639</v>
-      </c>
       <c r="T17" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U17" t="n">
         <v>250.1505146112862</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152.2198975226161</v>
+        <v>145.3733910419476</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28664,7 +28664,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705462</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.846506480668477</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490264</v>
       </c>
       <c r="T18" t="n">
-        <v>26.40782189532172</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U18" t="n">
-        <v>48.6656806183486</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>52.08654386482067</v>
+        <v>52.08654386482061</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.82190908344398</v>
       </c>
     </row>
     <row r="19">
@@ -28746,28 +28746,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K19" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587063</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374673</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984358</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460876</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R19" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S19" t="n">
         <v>235.4354176286827</v>
@@ -28822,37 +28822,37 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
-        <v>76.75309993802784</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273148</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>47.18451969969671</v>
       </c>
       <c r="M20" t="n">
-        <v>13.75016293810732</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4136397442805</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017751</v>
+        <v>15.04365268017744</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2378280274713</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R20" t="n">
-        <v>194.860438051743</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U20" t="n">
         <v>297.4245917920612</v>
@@ -28883,10 +28883,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>171.7606516908944</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28901,7 +28901,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>3.025074842490312</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T21" t="n">
-        <v>55.73096372041957</v>
+        <v>26.40782189532166</v>
       </c>
       <c r="U21" t="n">
-        <v>48.6656806183486</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.14220652643002</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.75053738888897</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.82190908344398</v>
       </c>
     </row>
     <row r="22">
@@ -28983,28 +28983,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K22" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374673</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R22" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S22" t="n">
         <v>235.4354176286827</v>
@@ -29059,31 +29059,31 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J23" t="n">
-        <v>76.75309993802784</v>
+        <v>103.9398845391383</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2468265688549</v>
+        <v>195.2468265688547</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>51.96021135818876</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4136397442806</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9394642895417</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017751</v>
+        <v>203.606029730759</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688969</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R23" t="n">
-        <v>194.860438051743</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
         <v>227.5093375700639</v>
@@ -29120,10 +29120,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>127.7952117208603</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>147.29697496475</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29138,7 +29138,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -29168,22 +29168,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
-        <v>26.4078218953216</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>48.66568061834848</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652643002</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.75053738888903</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.82190908344393</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29220,28 +29220,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K25" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374673</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R25" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S25" t="n">
         <v>235.4354176286827</v>
@@ -29305,7 +29305,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="M26" t="n">
-        <v>213.466976668033</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N26" t="n">
         <v>213.4669766680327</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>103.7101842635872</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,22 +29399,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>114.8220519118475</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>213.4669766680327</v>
@@ -29457,28 +29457,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K28" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055727</v>
+        <v>67.85465068956685</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374673</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N28" t="n">
-        <v>84.14181986664251</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P28" t="n">
-        <v>213.4669766680327</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q28" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S28" t="n">
         <v>213.4669766680327</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>167.6315650857792</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>213.4669766680328</v>
-      </c>
-      <c r="W30" t="n">
-        <v>213.4669766680328</v>
-      </c>
-      <c r="X30" t="n">
-        <v>129.6590094072538</v>
       </c>
       <c r="Y30" t="n">
         <v>213.4669766680328</v>
@@ -29694,28 +29694,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374673</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N31" t="n">
-        <v>162.9296079825141</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O31" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P31" t="n">
-        <v>58.46036931460879</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.4669766680328</v>
+        <v>204.8928850672795</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S31" t="n">
         <v>213.4669766680328</v>
@@ -29776,13 +29776,13 @@
         <v>213.4669766680328</v>
       </c>
       <c r="L32" t="n">
-        <v>213.466976668032</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M32" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="N32" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680317</v>
       </c>
       <c r="O32" t="n">
         <v>213.4669766680328</v>
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,22 +29873,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>208.4173477248521</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>213.4669766680328</v>
       </c>
-      <c r="U33" t="n">
-        <v>213.4669766680328</v>
-      </c>
-      <c r="V33" t="n">
-        <v>103.7101842635867</v>
-      </c>
       <c r="W33" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>213.4669766680328</v>
@@ -29931,28 +29931,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374673</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N34" t="n">
-        <v>94.1856125536177</v>
+        <v>73.1828228473139</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830505</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P34" t="n">
-        <v>213.4669766680328</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680328</v>
@@ -30007,10 +30007,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0596768448573</v>
+        <v>76.7530999380278</v>
       </c>
       <c r="K35" t="n">
-        <v>53.62173777070144</v>
+        <v>267.1428439929021</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,28 +30019,28 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O35" t="n">
-        <v>225.835481713589</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.67545097688969</v>
+        <v>179.4462477151438</v>
       </c>
       <c r="R35" t="n">
-        <v>194.860438051743</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T35" t="n">
         <v>222.4644104852103</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0596768448573</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V35" t="n">
         <v>272.0596768448573</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>106.3700394406012</v>
       </c>
       <c r="G36" t="n">
         <v>148.7444246896586</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>35.47621101347494</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30168,31 +30168,31 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374673</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4231839810569</v>
+        <v>220.3570396103882</v>
       </c>
       <c r="S37" t="n">
-        <v>270.9908733442072</v>
+        <v>235.4354176286827</v>
       </c>
       <c r="T37" t="n">
         <v>223.7609144406078</v>
@@ -30201,7 +30201,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>263.7306152706431</v>
       </c>
       <c r="W37" t="n">
         <v>272.0596768448573</v>
@@ -30241,22 +30241,22 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
-        <v>76.75309993802784</v>
+        <v>86.97518771573675</v>
       </c>
       <c r="K38" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273148</v>
       </c>
       <c r="L38" t="n">
         <v>213.2125982824128</v>
       </c>
       <c r="M38" t="n">
-        <v>8.770761277685025</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0596768448573</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R38" t="n">
         <v>272.0596768448573</v>
@@ -30274,10 +30274,10 @@
         <v>227.5093375700639</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0596768448573</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V38" t="n">
         <v>272.0596768448573</v>
@@ -30323,7 +30323,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>97.5006471143634</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.246189102382687</v>
+        <v>67.29545241512341</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30405,28 +30405,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374673</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830505</v>
+        <v>54.39143523763642</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R40" t="n">
-        <v>220.3570396103882</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S40" t="n">
         <v>235.4354176286827</v>
@@ -30438,7 +30438,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="V40" t="n">
-        <v>263.7306152706431</v>
+        <v>263.7306152706432</v>
       </c>
       <c r="W40" t="n">
         <v>272.0596768448573</v>
@@ -30481,28 +30481,28 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
+        <v>76.7530999380278</v>
+      </c>
+      <c r="K41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="K41" t="n">
-        <v>54.53995161096707</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="N41" t="n">
+        <v>114.0645629342688</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>240.9968149183972</v>
+        <v>15.04365268017744</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.9968149183972</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R41" t="n">
         <v>240.9968149183972</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30560,7 +30560,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30590,19 +30590,19 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>154.9779142382135</v>
+        <v>209.687118781714</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30642,28 +30642,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374673</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O43" t="n">
-        <v>140.5958576062221</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.204364743505</v>
+        <v>230.3426427414221</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4231839810569</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S43" t="n">
         <v>235.4354176286827</v>
@@ -30718,37 +30718,37 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>76.75309993802784</v>
+        <v>76.7530999380278</v>
       </c>
       <c r="K44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="O44" t="n">
-        <v>240.9968149183972</v>
+        <v>207.2644742626208</v>
       </c>
       <c r="P44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q44" t="n">
-        <v>218.783666591336</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R44" t="n">
-        <v>240.9968149183972</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S44" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T44" t="n">
-        <v>240.9968149183972</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5874518930719</v>
+        <v>83.78495241038661</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
-        <v>186.0032183027876</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,34 +30879,34 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K46" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M46" t="n">
-        <v>67.96058775681942</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.204364743505</v>
+        <v>230.3426427414221</v>
       </c>
       <c r="R46" t="n">
-        <v>240.9968149183972</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S46" t="n">
-        <v>240.9968149183972</v>
+        <v>235.4354176286827</v>
       </c>
       <c r="T46" t="n">
-        <v>240.9968149183972</v>
+        <v>223.7609144406078</v>
       </c>
       <c r="U46" t="n">
         <v>240.9968149183972</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I11" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O11" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S11" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H12" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O12" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R12" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H13" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J13" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I14" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O14" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S14" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H15" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O15" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R15" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H16" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J16" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K16" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M16" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069149</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I17" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048839</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690877</v>
       </c>
       <c r="M17" t="n">
-        <v>71.4753224330604</v>
+        <v>71.4753224330605</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517631</v>
+        <v>72.6318678751764</v>
       </c>
       <c r="O17" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723888</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613066</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232051</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380564</v>
       </c>
       <c r="S17" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H18" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645668</v>
       </c>
       <c r="J18" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810439</v>
       </c>
       <c r="O18" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876707</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225415</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R18" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584123</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H19" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222547</v>
       </c>
       <c r="J19" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301068</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O19" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785132</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119921</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127151</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831304</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.00995950508021019</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I20" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M20" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O20" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S20" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H21" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O21" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R21" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H22" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J22" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I23" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M23" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O23" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S23" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H24" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O24" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R24" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H25" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J25" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I26" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M26" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O26" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S26" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H27" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O27" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R27" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H28" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J28" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I29" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O29" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S29" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H30" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O30" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R30" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H31" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J31" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O31" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I32" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O32" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S32" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O33" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P33" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R33" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H34" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I35" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O35" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S35" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O36" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P36" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R36" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H37" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J37" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I38" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O38" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S38" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O39" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P39" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R39" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H40" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J40" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I41" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O41" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S41" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O42" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P42" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R42" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H43" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I44" t="n">
-        <v>15.69299363208908</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O44" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232045</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380561</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S44" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569378</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972321</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997495</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O45" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P45" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R45" t="n">
-        <v>13.52231444786598</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H46" t="n">
-        <v>1.623399328074258</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119911</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127147</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>124.3513666024957</v>
       </c>
       <c r="L11" t="n">
-        <v>188.5623770505815</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N11" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O11" t="n">
-        <v>180.9436951495479</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515637</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35498,13 +35498,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.287142390855651</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>146.2002418739981</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>30.2261010839683</v>
+        <v>153.1364108608085</v>
       </c>
       <c r="N13" t="n">
-        <v>161.8325570947117</v>
+        <v>161.8325570947116</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.8720697162502</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8692800099466</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.12528458105033</v>
+        <v>51.1252845810502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K14" t="n">
         <v>171.6451998062821</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M14" t="n">
         <v>188.5623770505816</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630111</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O14" t="n">
-        <v>188.5623770505816</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>14.415614054064</v>
       </c>
       <c r="Q14" t="n">
-        <v>74.46633889533017</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515637</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35738,10 +35738,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P15" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35796,34 +35796,34 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818958</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.10069804708243</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686846</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608086</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>103.9278032979321</v>
+        <v>161.8325570947116</v>
       </c>
       <c r="O16" t="n">
         <v>140.8720697162502</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>16.0722680174959</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,40 +35878,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.42777687366394</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.60877635313052</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>47.2457961922162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>81.73768759914326</v>
+      </c>
+      <c r="N17" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
+        <v>34.62291276104006</v>
+      </c>
+      <c r="P17" t="n">
+        <v>135.984421425733</v>
+      </c>
+      <c r="Q17" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="M17" t="n">
-        <v>81.73768759914316</v>
-      </c>
-      <c r="N17" t="n">
-        <v>76.14873730630111</v>
-      </c>
-      <c r="O17" t="n">
-        <v>34.62291276103997</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.91525422199724</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685088</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515626</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35975,10 +35975,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,40 +36118,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221612</v>
+        <v>94.4303158919129</v>
       </c>
       <c r="M20" t="n">
-        <v>95.48785053725048</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N20" t="n">
+        <v>76.14873730630119</v>
+      </c>
+      <c r="O20" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="O20" t="n">
-        <v>34.62291276103997</v>
-      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199723</v>
+        <v>69.9152542219973</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685088</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077492</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515637</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36212,10 +36212,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>27.18678460111053</v>
       </c>
       <c r="K23" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="L23" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M23" t="n">
-        <v>133.6978989573319</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N23" t="n">
-        <v>188.5623770505817</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O23" t="n">
-        <v>188.5623770505817</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515657</v>
+        <v>38.37582528515614</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
@@ -36446,13 +36446,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602488</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M26" t="n">
-        <v>295.2046642671762</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N26" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q26" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.6065386162898</v>
+        <v>18.60653861628982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36683,13 +36683,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N27" t="n">
-        <v>207.0214827210603</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O27" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>35.72524323900961</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>67.64472763679889</v>
+        <v>196.9698844381891</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.006607353424</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.04379268697588</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>295.204664267176</v>
       </c>
       <c r="N29" t="n">
-        <v>289.6157139743339</v>
+        <v>289.615713974334</v>
       </c>
       <c r="O29" t="n">
         <v>248.0898894290728</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36920,13 +36920,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N30" t="n">
-        <v>207.0214827210603</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>146.4325157526705</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.006607353424</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26261192452779</v>
+        <v>77.68852032377448</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>136.713876730005</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497597</v>
       </c>
       <c r="L32" t="n">
-        <v>260.7127728602482</v>
+        <v>260.712772860249</v>
       </c>
       <c r="M32" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671761</v>
       </c>
       <c r="N32" t="n">
-        <v>289.615713974334</v>
+        <v>289.6157139743329</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290728</v>
+        <v>248.0898894290729</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878554</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.7915256911431</v>
+        <v>123.7915256911432</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628988</v>
+        <v>18.60653861628991</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37157,13 +37157,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N33" t="n">
-        <v>207.0214827210603</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>77.68852032377409</v>
+        <v>56.68573061747032</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.0093970597278</v>
       </c>
       <c r="P34" t="n">
-        <v>155.006607353424</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,40 +37303,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.3065769068295</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>46.93728825242823</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630111</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4583944746289</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P35" t="n">
-        <v>257.0160241646798</v>
+        <v>257.0160241646799</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>89.77079673825416</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.5503392747934</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90916223357109</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37394,13 +37394,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N36" t="n">
-        <v>207.0214827210603</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>16.93385562933134</v>
       </c>
       <c r="S37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.62160008619324</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646011</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>10.22208777770896</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="M38" t="n">
-        <v>90.50844887682818</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630111</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276103997</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P38" t="n">
         <v>257.0160241646798</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679676</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.19923879311439</v>
+        <v>77.19923879311436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59526635964701</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357109</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37631,13 +37631,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N39" t="n">
-        <v>207.0214827210603</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>16.9338556293314</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.93385562933134</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>18.62160008619323</v>
+        <v>18.62160008619329</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2437149803694</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>47.85550209269386</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L41" t="n">
-        <v>47.24579619221612</v>
+        <v>288.2426111106134</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7345025175404</v>
+        <v>322.7345025175405</v>
       </c>
       <c r="N41" t="n">
-        <v>317.1455522246983</v>
+        <v>190.21330024057</v>
       </c>
       <c r="O41" t="n">
-        <v>34.62291276103997</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382197</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.3213639415075</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>46.13637686665429</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4874773483333</v>
+        <v>13.48747734833328</v>
       </c>
       <c r="T41" t="n">
-        <v>18.53240443318696</v>
+        <v>18.53240443318693</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37868,13 +37868,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N42" t="n">
-        <v>207.0214827210603</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>103.138277997917</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.1382779979172</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.312365400124</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2426111106133</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914316</v>
+        <v>322.7345025175405</v>
       </c>
       <c r="N44" t="n">
-        <v>76.14873730630111</v>
+        <v>317.1455522246984</v>
       </c>
       <c r="O44" t="n">
-        <v>275.6197276794372</v>
+        <v>241.8873870236608</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>225.9531622382198</v>
       </c>
       <c r="Q44" t="n">
-        <v>129.1082156144464</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.13637686665429</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.4874773483333</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.53240443318696</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38105,13 +38105,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N45" t="n">
-        <v>207.0214827210603</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>42.76734929307269</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>103.1382779979172</v>
       </c>
       <c r="R46" t="n">
-        <v>37.57363093734038</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.56139728971457</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.23590047778941</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
